--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10850,6 +10850,43 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I285"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10887,6 +10887,43 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10924,6 +10924,41 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10959,6 +10959,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11033,6 +11033,41 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I290" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11068,6 +11068,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I291" t="n">
+        <v>168000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11103,6 +11103,43 @@
         <v>168000</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I292"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11140,6 +11140,43 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11177,6 +11177,41 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I294" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11212,6 +11212,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03010.xlsx
+++ b/data/03010.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11249,6 +11249,43 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>03010</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>MYKRIS</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
